--- a/game records.xlsx
+++ b/game records.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/484b0a46ac1cac30/Documents/13 - 2025 Fall/CSCE 642/csce642-deepRL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Zehrer\Downloads\RLRL Project\CSCE-642-Rocket-League-RL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="133" documentId="8_{0BD080B9-DFCE-4145-9CF0-A32B7C12C52D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B8DFC09-781B-4D73-AF8D-021E45AD7D3D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638A6E11-38DD-4DAE-A864-A3FC2C5B66E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20280" yWindow="2020" windowWidth="16440" windowHeight="14210" xr2:uid="{02DF9A89-9EDC-4E3D-9ECA-8548067842A1}"/>
   </bookViews>
@@ -35,8 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>Game</t>
   </si>
@@ -57,6 +79,9 @@
   </si>
   <si>
     <t>Rate</t>
+  </si>
+  <si>
+    <t>Goal Diff</t>
   </si>
 </sst>
 </file>
@@ -177,10 +202,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -500,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3E0296-2D12-4F40-9C74-E775C9DEFE48}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -755,6 +776,9 @@
       <c r="C13" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="D13" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="F13" s="1">
         <v>12</v>
       </c>
@@ -775,6 +799,10 @@
       <c r="C14" s="7">
         <f>A14/(A14+B14)</f>
         <v>1</v>
+      </c>
+      <c r="D14" s="1" cm="1">
+        <f t="array" ref="D14">AVERAGE(B2:B11-C2:C11)</f>
+        <v>13.9</v>
       </c>
       <c r="F14" s="1">
         <v>13</v>
@@ -812,7 +840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
       <c r="F17" s="1">
@@ -825,7 +853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
       <c r="F18" s="1">
@@ -838,7 +866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
       <c r="F19" s="1">
@@ -851,7 +879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
       <c r="F20" s="1">
@@ -864,7 +892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
       <c r="F21" s="1">
@@ -877,13 +905,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
       <c r="G22" s="2"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
       <c r="F23" s="6" t="s">
@@ -895,8 +923,11 @@
       <c r="H23" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="I23" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
       <c r="F24" s="1">
@@ -909,18 +940,23 @@
         <f>F24/(F24+G24)</f>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="I24" s="1" cm="1">
+        <f t="array" ref="I24">AVERAGE(G2:G21-H2:H21)</f>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
       <c r="G25" s="2"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
       <c r="G26" s="2"/>
       <c r="H26" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/game records.xlsx
+++ b/game records.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Zehrer\Downloads\RLRL Project\CSCE-642-Rocket-League-RL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638A6E11-38DD-4DAE-A864-A3FC2C5B66E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCCEF54-CAFF-4FF9-A32D-50C388D6ECD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20280" yWindow="2020" windowWidth="16440" windowHeight="14210" xr2:uid="{02DF9A89-9EDC-4E3D-9ECA-8548067842A1}"/>
   </bookViews>
@@ -524,13 +524,12 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="8" width="12.54296875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="16384" width="12.453125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
